--- a/spreadsheets/Ziggs.xlsx
+++ b/spreadsheets/Ziggs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0237B-25FF-4A35-A7C9-B6CAE8A34247}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08526D7B-58A2-4788-A531-3F8A46ACB2F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
@@ -199,12 +199,6 @@
     <t>Requires good wave control and harass pre-6. Need to play around ahri's ult + charm cd after 6.</t>
   </si>
   <si>
-    <t>Annie can harass well like Ziggs early game, but you outrange her and stay safe pre6. Post 6 be careful of annie's burst potentional and keep an eye out when her ult is off cd. Her kill threat is generally only when her ult is up. Cleanse can do well in this matchup.</t>
-  </si>
-  <si>
-    <t>Farming matchup, taking tp is reccommended. Having minion wave prio is the main obective, Harass with bombs and look to roam post 6. ( you can use W satchel over anivia walls, if you do it too early she can interrupt with wall)</t>
-  </si>
-  <si>
     <t>Very hard matchup. Have to bait out her Q's before trading. Try to lane harass and play very safe and look to roam or jungle ganks.</t>
   </si>
   <si>
@@ -214,27 +208,12 @@
     <t xml:space="preserve">While this matchup can be winnable, very hard at all stages of game. Best thing to do is try to freeze wave in front of your turret. Try to keep yasuo's shield down with your autos and be careful with positioning as he can dash through minions to get close to you. You can cancel his E dash with a well-timed satchel. Play safe and wait for ganks or an all if in constant harass is successful. </t>
   </si>
   <si>
-    <t>This matchup requires great mechanical play. Play safe while trying to trade advantagously, she can gap close with her W to set up favorable trades, to avoid this use satchel to interrupt her w. Often you can use it right on top of yourself to avoid damage.</t>
-  </si>
-  <si>
     <t>One of the easier matchups, vlad is easy to bully in the early stages of the game and has no real kill pressure unless he has all of cds up( flash, ult , empowered q). The focus of this matchup should be to shove + harass and look for roams if no solo kill is available.</t>
   </si>
   <si>
     <t>IamZiggy</t>
   </si>
   <si>
-    <t>Hauruu#3457</t>
-  </si>
-  <si>
-    <t>Difficult matchup, Syndra can harass with her abilities easier than ziggs can. Pre-6 play play safe due to syndra's ability to set up ganks. Post 6 play for just wave prio so you can force syndra to farm the wave while you look for roams and grouping with your team.</t>
-  </si>
-  <si>
-    <t>You have the advantage in ths matchup, you have the ability to control the wave and prevent talon from farming safely, you have two options in this matchup, freeze wave by your turret or shove to make talon farm under his turret. Pre-6 avoid his W harass spam, remember not to get too low because he will go for an early all in lvl 2 or 3 if you are at 50% health. Try to keep talon in lane for as long as possible because his pressure comes from roaming to build a lead.</t>
-  </si>
-  <si>
-    <t>There is a small advatange in this matchup pre6. Constant Harass or set up wave for a gank to set behind kass early. Post 6 if kass has gotten ahead it is very difficult to stop him as ziggs.  Playing to take turrets and macro play is the best way to beat kass, vision and awareness to stop tp flanks and group for objectives.</t>
-  </si>
-  <si>
     <t>The best time to punish / beat fizz is in the early game with constant shoving and harass when he tries to cs. His post 6 is scary and you need to avoid his shark to beat him. Using satchel while fizz uses Q to dash towards you can cancel damage/gapclose and buy distance to win a fight.</t>
   </si>
   <si>
@@ -250,9 +229,6 @@
     <t>Easy matchup, harass and keep the pressure up. Cho only has kill pressure if he lands his stun ( which is pretty easy to dodge if you aren't next on top of him)</t>
   </si>
   <si>
-    <t xml:space="preserve">Another aassassin matchup in which is not terrible for Ziggs. Save satchel for when kat uses Shunpo to trade and counter aggression when she tries to run away from the trade. </t>
-  </si>
-  <si>
     <t>This matchup is relatively easy, you can choose to pressure malz or go for waveprio/ roam kills. For pressuring malz, try to auto his passive shield down before trading. If he tries to shove the wave level 2-3 you can punish him by saving your Q to kill his voidlings, this will make it harder for malz to shove the wave fast, and when they spawn as well as harass him. Post 6 be careful of your positioning in lane/what the jungle matchup looks like, Flash R is malz's most reliable way to look for plays, when his R cd is up play with a bit more respect.</t>
   </si>
   <si>
@@ -266,6 +242,30 @@
   </si>
   <si>
     <t>https://i.imgur.com/dJHMpJT.jpg</t>
+  </si>
+  <si>
+    <t>Farming matchup, taking tp is recommended. Having minion wave prio is the main objective, Harass with bombs and look to roam post 6. ( you can use W satchel over anivia walls, if you do it too early she can interrupt with wall)</t>
+  </si>
+  <si>
+    <t>Annie can harass well like Ziggs early game, but you outrange her and stay safe pre6. Post 6 be careful of annie's burst potential and keep an eye out when her ult is off cd. Her kill threat is generally only when her ult is up. Cleanse can do well in this matchup.</t>
+  </si>
+  <si>
+    <t>There is a small advantage in this matchup pre6. Constant Harass or set up wave for a gank to set behind kass early. Post 6 if kass has gotten ahead it is very difficult to stop him as ziggs.  Playing to take turrets and macro play is the best way to beat kass, vision and awareness to stop tp flanks and group for objectives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another assassin matchup in which is not terrible for Ziggs. Save satchel for when kat uses Shunpo to trade and counter aggression when she tries to run away from the trade. </t>
+  </si>
+  <si>
+    <t>This matchup requires great mechanical play. Play safe while trying to trade advantageously, she can gap close with her W to set up favorable trades, to avoid this use satchel to interrupt her w. Often you can use it right on top of yourself to avoid damage.</t>
+  </si>
+  <si>
+    <t>Difficult matchup, Syndra can harass with her abilities easier than ziggs can. Pre-6 play  safe due to syndra's ability to set up ganks. Post 6 play for just wave prio so you can force syndra to farm the wave while you look for roams and grouping with your team.</t>
+  </si>
+  <si>
+    <t>You have the advantage in this matchup, you have the ability to control the wave and prevent talon from farming safely, you have two options in this matchup, freeze wave by your turret or shove to make talon farm under his turret. Pre-6 avoid his W harass spam, remember not to get too low because he will go for an early all in lvl 2 or 3 if you are at 50% health. Try to keep talon in lane for as long as possible because his pressure comes from roaming to build a lead.</t>
+  </si>
+  <si>
+    <t>https://na.op.gg/summoner/userName=iamziggy</t>
   </si>
 </sst>
 </file>
@@ -744,14 +744,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -812,6 +812,9 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
@@ -828,9 +831,6 @@
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>51</v>
@@ -851,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -880,10 +880,11 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{53ED7DF3-2207-4CB3-B716-A6ADDAED41EC}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{E6B015AD-863D-4CD2-A5E3-25E9AE6C9C82}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{2791CE76-391A-4C68-820E-6B2AA58756B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -891,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -948,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -962,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -976,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>19</v>
@@ -990,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>20</v>
@@ -1004,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>49</v>
@@ -1018,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1030,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>54</v>
@@ -1044,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>55</v>
@@ -1058,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
